--- a/Excel/Asset.资源.xlsx
+++ b/Excel/Asset.资源.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE198E6-511C-453C-980F-F072F0902CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A34480F-60DA-46A3-8B96-EDC892175A7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="164">
   <si>
     <t>sheet名</t>
   </si>
@@ -745,6 +745,14 @@
   </si>
   <si>
     <t>账号不合法，必须是由数字或字符组成，长度大于7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称已被注册</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端未知sql错误</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1602,7 +1610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288B871-1805-4874-9B31-35F9DAC4AA57}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -2151,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C763ED-1E85-4F21-8A71-F8FE0310B7CA}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2283,6 +2291,22 @@
       </c>
       <c r="B12" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10009</v>
+      </c>
+      <c r="B13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10010</v>
+      </c>
+      <c r="B14" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Asset.资源.xlsx
+++ b/Excel/Asset.资源.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A34480F-60DA-46A3-8B96-EDC892175A7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236E7BDF-6362-4AB0-B2D4-63AB9050D6D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -31,196 +31,188 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="204">
   <si>
     <t>sheet名</t>
   </si>
   <si>
     <t>导出客户端文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>导出服务端文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
   </si>
   <si>
     <t>是否导出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽字段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>表注释</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>常驻内存</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Path</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>键</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>路径</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Ab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AssetBoundle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>配置UIPrefab的路径</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Login</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>asset_cfg.lua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HomePage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AssetName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>资源名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art/UI/Prefab/Main_Login</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art/UI/Prefab/Main_HomePage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Ctrl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>View</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>视图</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LoginPanel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HomePagePanel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>En</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>英文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ID段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>含义</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>10000~19999</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UI提示文本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>输入的账号不存在</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>账号和密码不匹配</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>两次输入的密码不相同</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>账号已被注册</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Words</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -236,7 +228,7 @@
       </rPr>
       <t>ords_cfg.lua</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -252,273 +244,266 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>配置在代码中出现的文字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>login_ctrl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>login_panel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>homepage_ctrl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>homepage_panel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MainPage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Regist</t>
-  </si>
-  <si>
-    <t>Regist</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RegistPanel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>regist_panel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Widget</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>View主键</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>控件名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>goUsrName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>goPswd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>comIptUserName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>comIptPasswd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>goBtnLoginEnsure</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>goBtnBack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>comTxtBtnEnsure</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>goBtnRegist</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>goTxtWarning</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>comTxtWarning</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GameObject</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>InputField</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Text</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>comIptUsrName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>comIptPswd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>goPswdCfm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>comIptPswdCfm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>goBtnRegistEnsure</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Login/UsrName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Login/Passwd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Login/UsrName/InputField</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Login/Passwd/InputField</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Login/BtnEnsure</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Login/BtnBack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Login/BtnEnsure/Text</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Login/BtnRegist</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Login/TxtWarning</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Regist/UsrName/InputField</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Regist/Pswd/InputField</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Regist/PswdCfm/InputField</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Regist/BtnEnsure</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Regist/BtnBack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HomePage</t>
   </si>
   <si>
     <t>goBtnSetting</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>goSettingPanel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>goBtnGoBackLogin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>goBtnSettingPanelClose</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BtnSetting</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SettingPanel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SettingPanel/BtnGoBackLogin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SettingPanel/BtnClose</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HelpCol</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>辅助列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Widgets</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Key,HelpCol,Widget</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>配置View的控件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>控制器名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>regist_ctrl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -534,7 +519,7 @@
       </rPr>
       <t>ontroller</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -550,55 +535,55 @@
       </rPr>
       <t>trl_cfg.lua</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>配置控制器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Regist/TxtWarning</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>账号不能为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>密码不能为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>IntKey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>整型键</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ProtoName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>协议名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>#note</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>登陆请求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -614,83 +599,83 @@
       </rPr>
       <t>_cfg.lua</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>消息的配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>验证账号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MsgType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>消息类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>C2S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>S2C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ReqLogin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ReqUsrNameValid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RspUsrNameValid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MsgType,IntKey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>未知文字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>验证账号回复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>登陆请求回复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RspLogin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务端消息逻辑名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string:e&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UsrNameValid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>错误</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -706,67 +691,250 @@
       </rPr>
       <t>ERR</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SrvReqHandler</t>
   </si>
   <si>
     <t>SrvReqHandler</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MsgC2S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MsgS2C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>注册</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ReqRegist</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>注册请求回复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RspRegist</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>密码太过简单，必须是由数字和字符组成，长度大于7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>账号不合法，必须是由数字或字符组成，长度大于7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>昵称已被注册</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务端未知sql错误</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetNickName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetNickNamePanel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>setnickname_panel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/UI/Prefab/Main_Login/Login</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/UI/Prefab/Main_Login/Regist</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/UI/Prefab/Main_HomePage/MainPage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/UI/Prefab/Main_HomePage/SetNickName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉取角色信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqPullPlayerInfo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PullPlayerInfo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置昵称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqSetNickName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedLogin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要登录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool:e&gt;|TRUE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉取角色信息回复</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置昵称回复</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RspPullPlayerInfo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RspSetNickName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>层</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnNetwork</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnNetworkPanel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_network_panel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/UI/Prefab/Main_HomePage/OnNetwork</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_network_ctrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnNetAnim/Slice1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnNetAnim/Slice2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnNetAnim/Slice3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnNetAnim/Slice4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnNetAnim/Slice5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnNetAnim/Slice6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnNetAnim/Slice7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnNetAnim/Slice8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>comImgSlice1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>comImgSlice2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>comImgSlice3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>comImgSlice4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>comImgSlice5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>comImgSlice6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>comImgSlice7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>comImgSlice8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -925,53 +1093,53 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyFont="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1269,7 +1437,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1331,18 +1499,18 @@
     </row>
     <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1351,18 +1519,18 @@
     </row>
     <row r="4" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -1371,10 +1539,10 @@
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
@@ -1382,7 +1550,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -1391,20 +1559,20 @@
     </row>
     <row r="6" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G6" s="3" t="b">
         <v>1</v>
@@ -1413,20 +1581,20 @@
     </row>
     <row r="7" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>1</v>
@@ -1437,7 +1605,7 @@
       <c r="A10" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1445,23 +1613,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79A01FA-D8E7-480B-B79B-17C4BFEC5B8C}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
+    <col min="3" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="42.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1472,19 +1640,22 @@
         <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="G1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1495,7 +1666,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1506,8 +1677,11 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1518,19 +1692,22 @@
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10101</v>
       </c>
@@ -1540,43 +1717,49 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10102</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>59</v>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10201</v>
       </c>
@@ -1586,21 +1769,76 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>57</v>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1608,10 +1846,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288B871-1805-4874-9B31-35F9DAC4AA57}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1628,13 +1866,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>10</v>
@@ -1642,13 +1880,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1659,16 +1897,16 @@
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -1679,16 +1917,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1696,16 +1934,16 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1713,16 +1951,16 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1730,16 +1968,16 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1747,16 +1985,16 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1764,16 +2002,16 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1781,16 +2019,16 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1798,16 +2036,16 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
         <v>74</v>
       </c>
-      <c r="D11" t="s">
-        <v>77</v>
-      </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1815,16 +2053,16 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1832,186 +2070,186 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
         <v>76</v>
       </c>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
         <v>76</v>
       </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2019,16 +2257,16 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2036,16 +2274,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2053,16 +2291,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2070,20 +2308,156 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2094,7 +2468,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2108,12 +2482,12 @@
         <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -2121,10 +2495,10 @@
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2132,27 +2506,27 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2161,8 +2535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C763ED-1E85-4F21-8A71-F8FE0310B7CA}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2178,24 +2552,24 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -2203,16 +2577,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2220,13 +2594,13 @@
         <v>10000</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2234,7 +2608,7 @@
         <v>10001</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2242,7 +2616,7 @@
         <v>10002</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2250,7 +2624,7 @@
         <v>10003</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2258,7 +2632,7 @@
         <v>10004</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2266,7 +2640,7 @@
         <v>10005</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2274,7 +2648,7 @@
         <v>10006</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2282,7 +2656,7 @@
         <v>10007</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2290,7 +2664,7 @@
         <v>10008</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2298,7 +2672,7 @@
         <v>10009</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2306,11 +2680,11 @@
         <v>10010</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2318,10 +2692,195 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FDAE71-4466-42BA-8280-A1E856CA2D08}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="30.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10010</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10011</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10020</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10030</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10040</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6897183-09FB-471E-ADC7-055C095DB21E}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2337,251 +2896,150 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B4" s="3">
-        <v>10010</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>130</v>
+        <v>40000</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="3">
+        <v>40010</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="3">
-        <v>10011</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B6" s="3">
-        <v>10020</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>156</v>
+        <v>40011</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6897183-09FB-471E-ADC7-055C095DB21E}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="30.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="3">
-        <v>20000</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="3">
-        <v>20010</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="3">
-        <v>20011</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B7" s="3">
-        <v>20020</v>
+        <v>40020</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E7" s="3"/>
     </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="3">
+        <v>40030</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="3">
+        <v>40040</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Excel/Asset.资源.xlsx
+++ b/Excel/Asset.资源.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236E7BDF-6362-4AB0-B2D4-63AB9050D6D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796ED582-8F8C-4006-A252-DD608DFA72D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -16,203 +16,199 @@
     <sheet name="MsgC2S" sheetId="30" r:id="rId6"/>
     <sheet name="MsgS2C" sheetId="32" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="237">
   <si>
     <t>sheet名</t>
   </si>
   <si>
     <t>导出客户端文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>导出服务端文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
   </si>
   <si>
     <t>是否导出</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽字段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>表注释</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>常驻内存</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Key</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Path</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>路径</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Ab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AssetBoundle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>配置UIPrefab的路径</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>int:&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Login</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>asset_cfg.lua</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>HomePage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AssetName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>资源名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Ctrl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>View</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>视图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>LoginPanel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>HomePagePanel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Cn</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>En</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>中文</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>英文</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ID段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>含义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>10000~19999</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>UI提示文本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>输入的账号不存在</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>账号和密码不匹配</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>两次输入的密码不相同</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>账号已被注册</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Words</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -228,7 +224,7 @@
       </rPr>
       <t>ords_cfg.lua</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -244,266 +240,266 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>int:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>配置在代码中出现的文字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>string:e&lt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>login_ctrl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>login_panel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>homepage_ctrl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>homepage_panel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MainPage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Regist</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>RegistPanel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>regist_panel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Widget</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>View主键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>控件名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>goUsrName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>goPswd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>comIptUserName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>comIptPasswd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>goBtnLoginEnsure</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>goBtnBack</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>comTxtBtnEnsure</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>goBtnRegist</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>goTxtWarning</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>comTxtWarning</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>GameObject</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>InputField</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Text</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>comIptUsrName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>comIptPswd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>goPswdCfm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>comIptPswdCfm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>goBtnRegistEnsure</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Login/UsrName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Login/Passwd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Login/UsrName/InputField</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Login/Passwd/InputField</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Login/BtnEnsure</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Login/BtnBack</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Login/BtnEnsure/Text</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Login/BtnRegist</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Login/TxtWarning</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Regist/UsrName/InputField</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Regist/Pswd/InputField</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Regist/PswdCfm/InputField</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Regist/BtnEnsure</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Regist/BtnBack</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>HomePage</t>
   </si>
   <si>
     <t>goBtnSetting</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>goSettingPanel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>goBtnGoBackLogin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>goBtnSettingPanelClose</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BtnSetting</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SettingPanel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SettingPanel/BtnGoBackLogin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SettingPanel/BtnClose</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>HelpCol</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>辅助列</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Widgets</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>string:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Key,HelpCol,Widget</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>配置View的控件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>控制器名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -519,7 +515,7 @@
       </rPr>
       <t>ontroller</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -535,55 +531,55 @@
       </rPr>
       <t>trl_cfg.lua</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>配置控制器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Regist/TxtWarning</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>账号不能为空</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>密码不能为空</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>IntKey</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>整型键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ProtoName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>协议名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>#note</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>登陆请求</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -599,83 +595,83 @@
       </rPr>
       <t>_cfg.lua</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>消息的配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>验证账号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MsgType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>消息类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>C2S</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>S2C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ReqLogin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ReqUsrNameValid</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>RspUsrNameValid</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MsgType,IntKey</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>未知文字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>验证账号回复</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>登陆请求回复</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>RspLogin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>服务端消息逻辑名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>string:e&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>UsrNameValid</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>错误</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -691,243 +687,455 @@
       </rPr>
       <t>ERR</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SrvReqHandler</t>
-  </si>
-  <si>
-    <t>SrvReqHandler</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MsgC2S</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MsgS2C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>注册</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ReqRegist</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>注册请求回复</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>RspRegist</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>密码太过简单，必须是由数字和字符组成，长度大于7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>账号不合法，必须是由数字或字符组成，长度大于7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>昵称已被注册</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>服务端未知sql错误</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SetNickName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SetNickNamePanel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/UI/Prefab/Main_Login/Login</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/UI/Prefab/Main_HomePage/MainPage</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/UI/Prefab/Main_HomePage/SetNickName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉取角色信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqPullPlayerInfo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉取角色信息回复</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置昵称回复</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layer</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>层</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnNetwork</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnNetworkPanel</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_network_panel</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/UI/Prefab/Main_HomePage/OnNetwork</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>on_network_ctrl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnNetAnim/Slice1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnNetAnim/Slice2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnNetAnim/Slice3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnNetAnim/Slice4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnNetAnim/Slice5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnNetAnim/Slice6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnNetAnim/Slice7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnNetAnim/Slice8</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>comImgSlice1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>comImgSlice2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>comImgSlice3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>comImgSlice4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>comImgSlice5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>comImgSlice6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>comImgSlice7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>comImgSlice8</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉取角色列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建角色</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqPullPlayerList</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改角色昵称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeNickName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqNewPlayer</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqChangeNickName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉取角色列表回复</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建角色回复</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Rsp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ChangeNickName</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2C</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2C</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RspPullPlayerInfo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Rsp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NewPlayer</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PullPlayerList</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PullPlayerInfo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewPlayer</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Rsp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PullPlayerList</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_player_ctrl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetNickName</t>
+  </si>
+  <si>
+    <t>SetNickName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/UI/Prefab/Main_Login/Regist</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetNickName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>goTxtWarning</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>comTxtWarning</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObject</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObject</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>goBtnEnsure</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>setnickname_panel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art/UI/Prefab/Main_Login/Login</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art/UI/Prefab/Main_Login/Regist</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art/UI/Prefab/Main_HomePage/MainPage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art/UI/Prefab/Main_HomePage/SetNickName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉取角色信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReqPullPlayerInfo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PullPlayerInfo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置昵称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReqSetNickName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeedLogin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否需要登录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool:e&gt;|TRUE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉取角色信息回复</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置昵称回复</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RspPullPlayerInfo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RspSetNickName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Layer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnNetwork</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnNetworkPanel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_network_panel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art/UI/Prefab/Main_HomePage/OnNetwork</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_network_ctrl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnNetAnim/Slice1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnNetAnim/Slice2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnNetAnim/Slice3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnNetAnim/Slice4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnNetAnim/Slice5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnNetAnim/Slice6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnNetAnim/Slice7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnNetAnim/Slice8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>comImgSlice1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>comImgSlice2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>comImgSlice3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>comImgSlice4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>comImgSlice5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>comImgSlice6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>comImgSlice7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>comImgSlice8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器角色创建上限</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号角色创建上限</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求的角色不存在</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>comTxtWarning</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectPlayer</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warning</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warning/Text</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IptNickName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BtnEnsure</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>comIptNickName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回登陆</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqBackToLogin</t>
+  </si>
+  <si>
+    <t>BackToLogin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RspBackToLogin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回登陆回复</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1093,54 +1301,66 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyFont="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1437,7 +1657,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1495,7 +1715,9 @@
       <c r="G2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -1515,7 +1737,9 @@
       <c r="G3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1535,7 +1759,9 @@
       <c r="G4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -1555,11 +1781,13 @@
       <c r="G5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>127</v>
@@ -1577,11 +1805,13 @@
       <c r="G6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>127</v>
@@ -1599,33 +1829,36 @@
       <c r="G7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79A01FA-D8E7-480B-B79B-17C4BFEC5B8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="4" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="42.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1640,7 +1873,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>25</v>
@@ -1666,7 +1899,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1692,7 +1925,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -1707,156 +1940,157 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="3">
+        <v>99</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>10101</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>10102</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>10201</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>10202</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>10102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>10201</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>10202</v>
-      </c>
-      <c r="B7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>10001</v>
-      </c>
-      <c r="B8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8">
-        <v>99</v>
-      </c>
-      <c r="E8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H8" t="s">
-        <v>185</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288B871-1805-4874-9B31-35F9DAC4AA57}">
-  <dimension ref="A1:E35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="42.5" customWidth="1"/>
     <col min="6" max="28" width="10.625" customWidth="1"/>
   </cols>
@@ -1912,569 +2146,637 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" t="s">
-        <v>195</v>
-      </c>
-      <c r="E28" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" t="s">
-        <v>197</v>
-      </c>
-      <c r="D29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" t="s">
-        <v>198</v>
-      </c>
-      <c r="D30" t="s">
-        <v>195</v>
-      </c>
-      <c r="E30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" t="s">
-        <v>199</v>
-      </c>
-      <c r="D31" t="s">
-        <v>195</v>
-      </c>
-      <c r="E31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>182</v>
-      </c>
-      <c r="B32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" t="s">
-        <v>200</v>
-      </c>
-      <c r="D32" t="s">
-        <v>195</v>
-      </c>
-      <c r="E32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>182</v>
-      </c>
-      <c r="B33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" t="s">
-        <v>201</v>
-      </c>
-      <c r="D33" t="s">
-        <v>195</v>
-      </c>
-      <c r="E33" t="s">
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>182</v>
-      </c>
-      <c r="B34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" t="s">
-        <v>195</v>
-      </c>
-      <c r="E34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>182</v>
-      </c>
-      <c r="B35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" t="s">
-        <v>203</v>
-      </c>
-      <c r="D35" t="s">
-        <v>195</v>
-      </c>
-      <c r="E35" t="s">
-        <v>194</v>
+      <c r="D39" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0158B2-28C1-488F-8F39-46E307A86404}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -2487,7 +2789,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -2501,42 +2803,51 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" t="s">
-        <v>186</v>
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C763ED-1E85-4F21-8A71-F8FE0310B7CA}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2656,7 +2967,7 @@
         <v>10007</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2664,7 +2975,7 @@
         <v>10008</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2672,7 +2983,7 @@
         <v>10009</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2680,22 +2991,46 @@
         <v>10010</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>10011</v>
+      </c>
+      <c r="B15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>10012</v>
+      </c>
+      <c r="B16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>10013</v>
+      </c>
+      <c r="B17" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FDAE71-4466-42BA-8280-A1E856CA2D08}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2704,12 +3039,12 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="30.875" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>130</v>
       </c>
@@ -2723,16 +3058,13 @@
         <v>122</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -2748,11 +3080,8 @@
       <c r="E2" t="s">
         <v>144</v>
       </c>
-      <c r="F2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>131</v>
       </c>
@@ -2768,11 +3097,8 @@
       <c r="E3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>132</v>
       </c>
@@ -2788,11 +3114,8 @@
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>132</v>
       </c>
@@ -2808,11 +3131,8 @@
       <c r="E5" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -2820,67 +3140,113 @@
         <v>10020</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="3">
         <v>10030</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B8" s="3">
-        <v>10040</v>
+        <v>10031</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>164</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10032</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10033</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10001</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>234</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6897183-09FB-471E-ADC7-055C095DB21E}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2889,12 +3255,11 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="30.875" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>130</v>
       </c>
@@ -2907,14 +3272,11 @@
       <c r="D1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -2927,11 +3289,8 @@
       <c r="D2" t="s">
         <v>121</v>
       </c>
-      <c r="E2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>131</v>
       </c>
@@ -2944,11 +3303,8 @@
       <c r="D3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>133</v>
       </c>
@@ -2961,9 +3317,8 @@
       <c r="D4" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>133</v>
       </c>
@@ -2976,9 +3331,8 @@
       <c r="D5" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>133</v>
       </c>
@@ -2991,9 +3345,8 @@
       <c r="D6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>133</v>
       </c>
@@ -3001,45 +3354,84 @@
         <v>40020</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="B8" s="3">
         <v>40030</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="B9" s="3">
-        <v>40040</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>40031</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="3">
+        <v>40032</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="3">
+        <v>40033</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="3">
+        <v>40001</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>235</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Excel/Asset.资源.xlsx
+++ b/Excel/Asset.资源.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796ED582-8F8C-4006-A252-DD608DFA72D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A6A248-FC12-43A4-84E2-622AB0F00F56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="MsgS2C" sheetId="32" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,188 +26,188 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="278">
   <si>
     <t>sheet名</t>
   </si>
   <si>
     <t>导出客户端文件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>导出服务端文件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
   </si>
   <si>
     <t>是否导出</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽字段</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>表注释</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>常驻内存</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Key</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Path</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>键</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>路径</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Ab</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>AssetBoundle</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>配置UIPrefab的路径</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>int:&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Login</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>asset_cfg.lua</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>HomePage</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>AssetName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>资源名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Ctrl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>视图</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>LoginPanel</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>HomePagePanel</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Cn</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>En</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>中文</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>英文</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ID段</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>段</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>含义</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>10000~19999</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>UI提示文本</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>输入的账号不存在</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>账号和密码不匹配</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>两次输入的密码不相同</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>账号已被注册</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Words</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -224,7 +223,7 @@
       </rPr>
       <t>ords_cfg.lua</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -240,266 +239,266 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>int:</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>配置在代码中出现的文字</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>string:e&lt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>login_ctrl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>login_panel</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>homepage_ctrl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>homepage_panel</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>MainPage</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Regist</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>RegistPanel</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>regist_panel</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Widget</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>View主键</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>控件名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>goUsrName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>goPswd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>comIptUserName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>comIptPasswd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>goBtnLoginEnsure</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>goBtnBack</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>comTxtBtnEnsure</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>goBtnRegist</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>goTxtWarning</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>comTxtWarning</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GameObject</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>InputField</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Text</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>comIptUsrName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>comIptPswd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>goPswdCfm</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>comIptPswdCfm</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>goBtnRegistEnsure</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Login/UsrName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Login/Passwd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Login/UsrName/InputField</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Login/Passwd/InputField</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Login/BtnEnsure</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Login/BtnBack</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Login/BtnEnsure/Text</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Login/BtnRegist</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Login/TxtWarning</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Regist/UsrName/InputField</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Regist/Pswd/InputField</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Regist/PswdCfm/InputField</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Regist/BtnEnsure</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Regist/BtnBack</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>HomePage</t>
   </si>
   <si>
     <t>goBtnSetting</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>goSettingPanel</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>goBtnGoBackLogin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>goBtnSettingPanelClose</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>BtnSetting</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>SettingPanel</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>SettingPanel/BtnGoBackLogin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>SettingPanel/BtnClose</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>HelpCol</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>辅助列</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Widgets</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>string:</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Key,HelpCol,Widget</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>配置View的控件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>控制器名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -515,7 +514,7 @@
       </rPr>
       <t>ontroller</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -531,55 +530,55 @@
       </rPr>
       <t>trl_cfg.lua</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>配置控制器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Regist/TxtWarning</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>账号不能为空</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>密码不能为空</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>IntKey</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>整型键</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ProtoName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>协议名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>#note</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>登陆请求</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -595,83 +594,83 @@
       </rPr>
       <t>_cfg.lua</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>消息的配置</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>验证账号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>MsgType</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>消息类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>C2S</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>S2C</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ReqLogin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ReqUsrNameValid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>RspUsrNameValid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Desc</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>MsgType,IntKey</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>未知文字</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>验证账号回复</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>登陆请求回复</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>RspLogin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>服务端消息逻辑名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>string:e&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>UsrNameValid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>错误</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -687,223 +686,223 @@
       </rPr>
       <t>ERR</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>SrvReqHandler</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>MsgC2S</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>MsgS2C</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>注册</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ReqRegist</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>注册请求回复</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>RspRegist</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>密码太过简单，必须是由数字和字符组成，长度大于7</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>账号不合法，必须是由数字或字符组成，长度大于7</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>昵称已被注册</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>服务端未知sql错误</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>SetNickName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>SetNickNamePanel</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Art/UI/Prefab/Main_Login/Login</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Art/UI/Prefab/Main_HomePage/MainPage</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Art/UI/Prefab/Main_HomePage/SetNickName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>拉取角色信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ReqPullPlayerInfo</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>拉取角色信息回复</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>设置昵称回复</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Layer</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>层</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>OnNetwork</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>OnNetworkPanel</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>on_network_panel</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Art/UI/Prefab/Main_HomePage/OnNetwork</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>on_network_ctrl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>OnNetAnim/Slice1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>OnNetAnim/Slice2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>OnNetAnim/Slice3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>OnNetAnim/Slice4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>OnNetAnim/Slice5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>OnNetAnim/Slice6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>OnNetAnim/Slice7</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>OnNetAnim/Slice8</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Image</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>comImgSlice1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>comImgSlice2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>comImgSlice3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>comImgSlice4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>comImgSlice5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>comImgSlice6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>comImgSlice7</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>comImgSlice8</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>拉取角色列表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新建角色</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ReqPullPlayerList</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>更改角色昵称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ChangeNickName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ReqNewPlayer</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ReqChangeNickName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>拉取角色列表回复</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新建角色回复</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -919,7 +918,7 @@
       </rPr>
       <t>ChangeNickName</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -935,7 +934,7 @@
       </rPr>
       <t>2C</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -951,11 +950,11 @@
       </rPr>
       <t>2C</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>RspPullPlayerInfo</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -971,19 +970,19 @@
       </rPr>
       <t>NewPlayer</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>PullPlayerList</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>PullPlayerInfo</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>NewPlayer</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -999,122 +998,395 @@
       </rPr>
       <t>PullPlayerList</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>select_player_ctrl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>SetNickName</t>
   </si>
   <si>
     <t>SetNickName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Art/UI/Prefab/Main_Login/Regist</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>SetNickName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>goTxtWarning</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>comTxtWarning</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GameObject</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GameObject</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>goBtnEnsure</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>setnickname_panel</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>服务器角色创建上限</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>账号角色创建上限</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>请求的角色不存在</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>comTxtWarning</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>SelectPlayer</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Warning</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Warning/Text</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>IptNickName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>BtnEnsure</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>comIptNickName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>返回登陆</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ReqBackToLogin</t>
   </si>
   <si>
     <t>BackToLogin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>RspBackToLogin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>返回登陆回复</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource/Resource1/TxtAdd</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource/Resource1/TxtStok</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource/Resource2/TxtStok</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource/Resource2/TxtAdd</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource/Resource3/TxtStok</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource/Resource3/TxtAdd</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>omTxtRes1Stock</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>comTxtRes1Add</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>comTxtRes2Stock</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>comTxtRes2Add</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>comTxtRes3Stock</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>comTxtRes3Add</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>goBtnFood</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceInteract/BtnFood</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>goBtnWood</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceInteract/BtnWood</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceInteract/BtnFood/Process</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceInteract/BtnWood/Process</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceInteract/BtnStone/Process</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>goBtnStone</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceInteract/BtnStone</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>goBtnHunter</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceInteract/BtnHunter</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>comImgPreyIcone</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceInteract/BtnHunter/Icone</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>comImgHunterProcess</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceInteract/BtnHunter/Process</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqGatherRes</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>GatherRes</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源变化</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>RspResChange</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集反馈</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>RspGather</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ame_ctrl</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>comImgRes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1Process</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>comImgRes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2Process</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>comImgRes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3Process</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>心跳</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heartbeat</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1301,54 +1573,75 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyFont="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1837,7 +2130,7 @@
       <c r="A10" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1848,7 +2141,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2071,7 +2364,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2079,10 +2372,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2555,211 +2848,466 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>213</v>
+      <c r="A28" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>216</v>
+      <c r="C28" s="14" t="s">
+        <v>243</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>227</v>
+        <v>76</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>225</v>
+      <c r="C29" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>228</v>
+      <c r="E29" s="11" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>231</v>
+      <c r="C30" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>229</v>
+        <v>76</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>220</v>
+      <c r="C31" s="11" t="s">
+        <v>246</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>230</v>
+        <v>76</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>185</v>
+      <c r="C32" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>176</v>
+        <v>76</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>186</v>
+      <c r="C33" s="11" t="s">
+        <v>248</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>177</v>
+        <v>76</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>187</v>
+      <c r="C34" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>178</v>
+        <v>74</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="C35" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>179</v>
+      <c r="E35" s="12" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>189</v>
+      <c r="C36" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>180</v>
+        <v>74</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>181</v>
+      <c r="E37" s="12" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>191</v>
+      <c r="C38" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>182</v>
+        <v>74</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>183</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2767,10 +3315,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2804,39 +3352,47 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>51</v>
+      <c r="A4" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>211</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3019,7 +3575,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3027,10 +3583,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3234,8 +3790,25 @@
         <v>234</v>
       </c>
     </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10040</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -3243,10 +3816,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3320,16 +3893,16 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="B5" s="3">
-        <v>40010</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>136</v>
+        <v>40001</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -3337,13 +3910,13 @@
         <v>133</v>
       </c>
       <c r="B6" s="3">
-        <v>40011</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>142</v>
+        <v>40002</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -3351,41 +3924,41 @@
         <v>133</v>
       </c>
       <c r="B7" s="3">
-        <v>40020</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>154</v>
+        <v>40010</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="B8" s="3">
-        <v>40030</v>
+        <v>40011</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>210</v>
+        <v>141</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="B9" s="3">
-        <v>40031</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>205</v>
+        <v>40020</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -3393,27 +3966,27 @@
         <v>203</v>
       </c>
       <c r="B10" s="3">
-        <v>40032</v>
+        <v>40030</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B11" s="3">
-        <v>40033</v>
+        <v>40031</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -3421,17 +3994,59 @@
         <v>203</v>
       </c>
       <c r="B12" s="3">
-        <v>40001</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>235</v>
+        <v>40032</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="3">
+        <v>40033</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="3">
+        <v>41000</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="3">
+        <v>40040</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
